--- a/AuxDox/Decodificador_mensagem_V00_R00.xlsx
+++ b/AuxDox/Decodificador_mensagem_V00_R00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\favero.santos\PycharmProjects\ME\AuxDox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85702F47-DDDD-42C3-947C-9F529CBD26F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E380DB86-B3CF-4C8C-8AD3-1BD36F2F92C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{CAA23727-E135-465E-AFAF-7EAF40409B97}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CAA23727-E135-465E-AFAF-7EAF40409B97}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
   <si>
     <t>B0</t>
   </si>
@@ -151,6 +151,33 @@
   </si>
   <si>
     <t>objectId</t>
+  </si>
+  <si>
+    <t>0 a 1</t>
+  </si>
+  <si>
+    <t>1 a 2</t>
+  </si>
+  <si>
+    <t>2 a 3</t>
+  </si>
+  <si>
+    <t>3 a 4</t>
+  </si>
+  <si>
+    <t>4 a 5</t>
+  </si>
+  <si>
+    <t>5 a 6</t>
+  </si>
+  <si>
+    <t>6 a 7</t>
+  </si>
+  <si>
+    <t>7 a 8</t>
+  </si>
+  <si>
+    <t>Index do python</t>
   </si>
 </sst>
 </file>
@@ -170,7 +197,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,6 +290,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,19 +608,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF4DB46-9A25-4720-B80E-5438581550A7}">
-  <dimension ref="A2:BM31"/>
+  <dimension ref="A1:BM31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AM13" sqref="AM13:AO13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="B5:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="23" width="4.42578125" customWidth="1"/>
     <col min="24" max="66" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+    </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>36</v>
@@ -855,115 +977,115 @@
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="4">
+      <c r="B5" s="7">
         <v>63</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>62</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>61</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>60</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>59</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="7">
         <v>58</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="7">
         <v>57</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="7">
         <v>56</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="9">
         <v>55</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="9">
         <v>54</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="9">
         <v>53</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="9">
         <v>52</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="9">
         <v>51</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="9">
         <v>50</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="9">
         <v>49</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="13">
         <v>48</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="13">
         <v>47</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="13">
         <v>46</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="13">
         <v>45</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="13">
         <v>44</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="13">
         <v>43</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="13">
         <v>42</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="13">
         <v>41</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="13">
         <v>40</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="13">
         <v>39</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="AA5" s="13">
         <v>38</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AB5" s="11">
         <v>37</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AC5" s="11">
         <v>36</v>
       </c>
-      <c r="AD5" s="9">
+      <c r="AD5" s="11">
         <v>35</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AE5" s="11">
         <v>34</v>
       </c>
-      <c r="AF5" s="9">
+      <c r="AF5" s="11">
         <v>33</v>
       </c>
-      <c r="AG5" s="9">
+      <c r="AG5" s="11">
         <v>32</v>
       </c>
-      <c r="AH5" s="9">
+      <c r="AH5" s="11">
         <v>31</v>
       </c>
-      <c r="AI5" s="9">
+      <c r="AI5" s="11">
         <v>30</v>
       </c>
-      <c r="AJ5" s="9">
+      <c r="AJ5" s="11">
         <v>29</v>
       </c>
-      <c r="AK5" s="9">
+      <c r="AK5" s="11">
         <v>28</v>
       </c>
-      <c r="AL5" s="9">
+      <c r="AL5" s="11">
         <v>27</v>
       </c>
       <c r="AM5" s="5">
@@ -1052,115 +1174,115 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="12" t="s">
+      <c r="U6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="12" t="s">
+      <c r="W6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="12" t="s">
+      <c r="X6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Y6" s="12" t="s">
+      <c r="Y6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Z6" s="12" t="s">
+      <c r="Z6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AA6" s="12" t="s">
+      <c r="AA6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AB6" s="10" t="s">
+      <c r="AB6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="10" t="s">
+      <c r="AC6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AD6" s="10" t="s">
+      <c r="AD6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AE6" s="10" t="s">
+      <c r="AE6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AF6" s="10" t="s">
+      <c r="AF6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AG6" s="10" t="s">
+      <c r="AG6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AH6" s="10" t="s">
+      <c r="AH6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AI6" s="10" t="s">
+      <c r="AI6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AJ6" s="10" t="s">
+      <c r="AJ6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AK6" s="10" t="s">
+      <c r="AK6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AL6" s="10" t="s">
+      <c r="AL6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="AM6" s="6" t="s">
@@ -1312,7 +1434,7 @@
       <c r="BL7" s="2"/>
       <c r="BM7" s="2"/>
     </row>
-    <row r="9" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1509,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="str">
         <f>BIN2HEX(_xlfn.CONCAT(B9:E9))</f>
         <v>0</v>
@@ -1623,7 +1745,7 @@
       <c r="BL10" s="1"/>
       <c r="BM10" s="1"/>
     </row>
-    <row r="11" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="str">
         <f t="shared" ref="B11" si="0">_xlfn.CONCAT("0x",B10,F10)</f>
         <v>0x00</v>
@@ -3719,9 +3841,17 @@
       <c r="BM31" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="176">
+  <mergeCells count="184">
     <mergeCell ref="AX31:BE31"/>
     <mergeCell ref="BF31:BM31"/>
+    <mergeCell ref="BF1:BM1"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="AH1:AO1"/>
+    <mergeCell ref="AP1:AW1"/>
+    <mergeCell ref="AX1:BE1"/>
     <mergeCell ref="AX30:BA30"/>
     <mergeCell ref="BB30:BE30"/>
     <mergeCell ref="BF30:BI30"/>

--- a/AuxDox/Decodificador_mensagem_V00_R00.xlsx
+++ b/AuxDox/Decodificador_mensagem_V00_R00.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\favero.santos\PycharmProjects\ME\AuxDox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E380DB86-B3CF-4C8C-8AD3-1BD36F2F92C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9338B721-CCAE-4E88-82DE-8A6C78E62E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CAA23727-E135-465E-AFAF-7EAF40409B97}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CAA23727-E135-465E-AFAF-7EAF40409B97}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="OBJECT_DATA" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
   <si>
     <t>B0</t>
   </si>
@@ -178,6 +179,12 @@
   </si>
   <si>
     <t>Index do python</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>hex</t>
   </si>
 </sst>
 </file>
@@ -610,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF4DB46-9A25-4720-B80E-5438581550A7}">
   <dimension ref="A1:BM31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="B5:I7"/>
+    <sheetView topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="J5:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4030,4 +4037,85 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1992D2DD-F4D2-4C46-9986-EAFE2A42C05F}">
+  <dimension ref="B4:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>144</v>
+      </c>
+      <c r="D4">
+        <v>57</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>31</v>
+      </c>
+      <c r="G4">
+        <v>227</v>
+      </c>
+      <c r="H4">
+        <v>252</v>
+      </c>
+      <c r="I4">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="str">
+        <f>DEC2HEX(C4)</f>
+        <v>90</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:J5" si="0">DEC2HEX(D4)</f>
+        <v>39</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>1F</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>E3</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>FC</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>A6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>